--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H2">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I2">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J2">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N2">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O2">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P2">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q2">
-        <v>54.21832227163732</v>
+        <v>35.86699630285955</v>
       </c>
       <c r="R2">
-        <v>487.9649004447359</v>
+        <v>322.802966725736</v>
       </c>
       <c r="S2">
-        <v>0.002823483973039487</v>
+        <v>0.001637627113986251</v>
       </c>
       <c r="T2">
-        <v>0.00306781092301653</v>
+        <v>0.001699289061947265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H3">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I3">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J3">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P3">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q3">
-        <v>356.1872802079973</v>
+        <v>334.6871326774764</v>
       </c>
       <c r="R3">
-        <v>3205.685521871976</v>
+        <v>3012.184194097288</v>
       </c>
       <c r="S3">
-        <v>0.0185488785881134</v>
+        <v>0.0152812551836478</v>
       </c>
       <c r="T3">
-        <v>0.02015398454026425</v>
+        <v>0.0158566437772205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H4">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I4">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J4">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N4">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O4">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P4">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q4">
-        <v>405.3619681376027</v>
+        <v>467.902881915952</v>
       </c>
       <c r="R4">
-        <v>3648.257713238424</v>
+        <v>4211.125937243567</v>
       </c>
       <c r="S4">
-        <v>0.02110970927101137</v>
+        <v>0.02136366367754021</v>
       </c>
       <c r="T4">
-        <v>0.02293641377166985</v>
+        <v>0.02216807458811345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H5">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I5">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J5">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N5">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O5">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P5">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q5">
-        <v>142.4751474003</v>
+        <v>55.75816223049333</v>
       </c>
       <c r="R5">
-        <v>854.8508844018</v>
+        <v>334.54897338296</v>
       </c>
       <c r="S5">
-        <v>0.00741956368966482</v>
+        <v>0.002545824510189609</v>
       </c>
       <c r="T5">
-        <v>0.005374404753964871</v>
+        <v>0.001761122014836881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H6">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I6">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J6">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N6">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O6">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P6">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q6">
-        <v>507.7149942428373</v>
+        <v>694.6359168849768</v>
       </c>
       <c r="R6">
-        <v>4569.434948185536</v>
+        <v>6251.723251964791</v>
       </c>
       <c r="S6">
-        <v>0.02643986551141204</v>
+        <v>0.03171591516150585</v>
       </c>
       <c r="T6">
-        <v>0.02872780897413067</v>
+        <v>0.03291012176294904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J7">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N7">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O7">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P7">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q7">
-        <v>226.9267666893777</v>
+        <v>159.7622061441722</v>
       </c>
       <c r="R7">
-        <v>2042.3409002044</v>
+        <v>1437.85985529755</v>
       </c>
       <c r="S7">
-        <v>0.01181748276147424</v>
+        <v>0.007294475354522459</v>
       </c>
       <c r="T7">
-        <v>0.01284009508974932</v>
+        <v>0.007569135902013399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J8">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P8">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q8">
         <v>1490.795444177128</v>
@@ -948,10 +948,10 @@
         <v>13417.15899759415</v>
       </c>
       <c r="S8">
-        <v>0.07763495562673174</v>
+        <v>0.06806722871848062</v>
       </c>
       <c r="T8">
-        <v>0.08435300754450585</v>
+        <v>0.07063017963645418</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J9">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N9">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O9">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P9">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q9">
-        <v>1696.612453396206</v>
+        <v>2084.1777785041</v>
       </c>
       <c r="R9">
-        <v>15269.51208056585</v>
+        <v>18757.6000065369</v>
       </c>
       <c r="S9">
-        <v>0.08835312252237143</v>
+        <v>0.0951600745048681</v>
       </c>
       <c r="T9">
-        <v>0.09599865872975441</v>
+        <v>0.09874315853661843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J10">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N10">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O10">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P10">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q10">
-        <v>596.319162573125</v>
+        <v>248.3633403050833</v>
       </c>
       <c r="R10">
-        <v>3577.91497543875</v>
+        <v>1490.1800418305</v>
       </c>
       <c r="S10">
-        <v>0.03105403354065647</v>
+        <v>0.01133985507928836</v>
       </c>
       <c r="T10">
-        <v>0.02249417249738957</v>
+        <v>0.007844558156016476</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J11">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N11">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O11">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P11">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q11">
-        <v>2125.003453002711</v>
+        <v>3094.113753252206</v>
       </c>
       <c r="R11">
-        <v>19125.0310770244</v>
+        <v>27847.02377926985</v>
       </c>
       <c r="S11">
-        <v>0.1106620961479916</v>
+        <v>0.1412720634116663</v>
       </c>
       <c r="T11">
-        <v>0.1202381138226373</v>
+        <v>0.1465914126994484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H12">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I12">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J12">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N12">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O12">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P12">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q12">
-        <v>145.0451156367493</v>
+        <v>122.4285697777813</v>
       </c>
       <c r="R12">
-        <v>1305.406040730744</v>
+        <v>1101.857128000032</v>
       </c>
       <c r="S12">
-        <v>0.007553397859052813</v>
+        <v>0.005589883906132049</v>
       </c>
       <c r="T12">
-        <v>0.008207022486813252</v>
+        <v>0.005800361082275655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H13">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I13">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J13">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P13">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q13">
-        <v>952.8739193970642</v>
+        <v>1142.422594597451</v>
       </c>
       <c r="R13">
-        <v>8575.865274573578</v>
+        <v>10281.80335137706</v>
       </c>
       <c r="S13">
-        <v>0.04962204891301747</v>
+        <v>0.05216110657122826</v>
       </c>
       <c r="T13">
-        <v>0.05391603605029088</v>
+        <v>0.05412514063705104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H14">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I14">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J14">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N14">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O14">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P14">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q14">
-        <v>1084.426280265336</v>
+        <v>1597.141844389824</v>
       </c>
       <c r="R14">
-        <v>9759.836522388021</v>
+        <v>14374.27659950842</v>
       </c>
       <c r="S14">
-        <v>0.05647279543125448</v>
+        <v>0.07292282763712382</v>
       </c>
       <c r="T14">
-        <v>0.06135960406772869</v>
+        <v>0.07566860753080488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H15">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I15">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J15">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N15">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O15">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P15">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q15">
-        <v>381.1501972802625</v>
+        <v>190.32516683792</v>
       </c>
       <c r="R15">
-        <v>2286.901183681575</v>
+        <v>1141.95100102752</v>
       </c>
       <c r="S15">
-        <v>0.01984885234828867</v>
+        <v>0.008689929066150577</v>
       </c>
       <c r="T15">
-        <v>0.01437763336002962</v>
+        <v>0.006011421967427307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H16">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I16">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J16">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N16">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O16">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P16">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q16">
-        <v>1358.241586331549</v>
+        <v>2371.07342645599</v>
       </c>
       <c r="R16">
-        <v>12224.17427698394</v>
+        <v>21339.6608381039</v>
       </c>
       <c r="S16">
-        <v>0.07073205495569179</v>
+        <v>0.1082592503601156</v>
       </c>
       <c r="T16">
-        <v>0.07685277227441943</v>
+        <v>0.1123355606538275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H17">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I17">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J17">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N17">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O17">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P17">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q17">
-        <v>104.0331628635746</v>
+        <v>36.90338273041533</v>
       </c>
       <c r="R17">
-        <v>624.198977181448</v>
+        <v>221.420296382492</v>
       </c>
       <c r="S17">
-        <v>0.005417651371399387</v>
+        <v>0.001684946786366995</v>
       </c>
       <c r="T17">
-        <v>0.003924307749569101</v>
+        <v>0.001165593648510581</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H18">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I18">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J18">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P18">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q18">
-        <v>683.4458865429822</v>
+        <v>344.3580066713726</v>
       </c>
       <c r="R18">
-        <v>4100.675319257894</v>
+        <v>2066.148040028236</v>
       </c>
       <c r="S18">
-        <v>0.0355912618879271</v>
+        <v>0.01572281112924802</v>
       </c>
       <c r="T18">
-        <v>0.02578074063257017</v>
+        <v>0.01087655048649788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H19">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I19">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J19">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N19">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O19">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P19">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q19">
-        <v>777.801412568218</v>
+        <v>481.4230605263159</v>
       </c>
       <c r="R19">
-        <v>4666.808475409308</v>
+        <v>2888.538363157896</v>
       </c>
       <c r="S19">
-        <v>0.04050493874729625</v>
+        <v>0.02198097243936992</v>
       </c>
       <c r="T19">
-        <v>0.02933999146954678</v>
+        <v>0.01520575134521505</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H20">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I20">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J20">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N20">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O20">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P20">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q20">
-        <v>273.3788061395063</v>
+        <v>57.36930920452999</v>
       </c>
       <c r="R20">
-        <v>1093.515224558025</v>
+        <v>229.47723681812</v>
       </c>
       <c r="S20">
-        <v>0.01423652826873529</v>
+        <v>0.002619386788642488</v>
       </c>
       <c r="T20">
-        <v>0.006874875523478183</v>
+        <v>0.001208006736884256</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H21">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I21">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J21">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N21">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O21">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P21">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q21">
-        <v>974.1945982709747</v>
+        <v>714.7076070335872</v>
       </c>
       <c r="R21">
-        <v>5845.167589625848</v>
+        <v>4288.245642201524</v>
       </c>
       <c r="S21">
-        <v>0.05073234876319006</v>
+        <v>0.03263235499196565</v>
       </c>
       <c r="T21">
-        <v>0.03674827628375136</v>
+        <v>0.02257404567451613</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H22">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I22">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J22">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.383805333333332</v>
+        <v>3.790335666666667</v>
       </c>
       <c r="N22">
-        <v>16.151416</v>
+        <v>11.371007</v>
       </c>
       <c r="O22">
-        <v>0.03698491560717502</v>
+        <v>0.02257417106507704</v>
       </c>
       <c r="P22">
-        <v>0.03822320902082742</v>
+        <v>0.02284136466268864</v>
       </c>
       <c r="Q22">
-        <v>179.984337886624</v>
+        <v>139.4540285845548</v>
       </c>
       <c r="R22">
-        <v>1619.859040979616</v>
+        <v>1255.086257260993</v>
       </c>
       <c r="S22">
-        <v>0.00937289964220909</v>
+        <v>0.006367237904069292</v>
       </c>
       <c r="T22">
-        <v>0.01018397277167921</v>
+        <v>0.006606984967941746</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H23">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I23">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J23">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.106731</v>
       </c>
       <c r="O23">
-        <v>0.2429724112974505</v>
+        <v>0.2106472625291773</v>
       </c>
       <c r="P23">
-        <v>0.2511073801535239</v>
+        <v>0.2131405368000222</v>
       </c>
       <c r="Q23">
-        <v>1182.407147729284</v>
+        <v>1301.292937194363</v>
       </c>
       <c r="R23">
-        <v>10641.66432956355</v>
+        <v>11711.63643474927</v>
       </c>
       <c r="S23">
-        <v>0.06157526628166077</v>
+        <v>0.05941486092657265</v>
       </c>
       <c r="T23">
-        <v>0.06690361138589275</v>
+        <v>0.06165202226279858</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H24">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I24">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J24">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>40.25188966666667</v>
+        <v>49.446822</v>
       </c>
       <c r="N24">
-        <v>120.755669</v>
+        <v>148.340466</v>
       </c>
       <c r="O24">
-        <v>0.2765168222435087</v>
+        <v>0.2944913370783471</v>
       </c>
       <c r="P24">
-        <v>0.2857748928413986</v>
+        <v>0.2979770110192673</v>
       </c>
       <c r="Q24">
-        <v>1345.648525864316</v>
+        <v>1819.247458541726</v>
       </c>
       <c r="R24">
-        <v>12110.83673277884</v>
+        <v>16373.22712687553</v>
       </c>
       <c r="S24">
-        <v>0.07007625627157518</v>
+        <v>0.0830637988194451</v>
       </c>
       <c r="T24">
-        <v>0.07614022480269889</v>
+        <v>0.08619141901851557</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H25">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I25">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J25">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1475875</v>
+        <v>5.892385</v>
       </c>
       <c r="N25">
-        <v>28.295175</v>
+        <v>11.78477</v>
       </c>
       <c r="O25">
-        <v>0.09718912504005055</v>
+        <v>0.03509338450973445</v>
       </c>
       <c r="P25">
-        <v>0.06696207863792814</v>
+        <v>0.02367250578914543</v>
       </c>
       <c r="Q25">
-        <v>472.96364025555</v>
+        <v>216.7926269558717</v>
       </c>
       <c r="R25">
-        <v>2837.7818415333</v>
+        <v>1300.75576173523</v>
       </c>
       <c r="S25">
-        <v>0.0246301471927053</v>
+        <v>0.009898389065463418</v>
       </c>
       <c r="T25">
-        <v>0.01784099250306588</v>
+        <v>0.006847396913980517</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H26">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I26">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J26">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.41540533333333</v>
+        <v>73.40740966666667</v>
       </c>
       <c r="N26">
-        <v>151.246216</v>
+        <v>220.222229</v>
       </c>
       <c r="O26">
-        <v>0.3463367258118152</v>
+        <v>0.4371938448176639</v>
       </c>
       <c r="P26">
-        <v>0.3579324393463219</v>
+        <v>0.4423685817288764</v>
       </c>
       <c r="Q26">
-        <v>1685.421887753824</v>
+        <v>2700.805391986863</v>
       </c>
       <c r="R26">
-        <v>15168.79698978442</v>
+        <v>24307.24852788177</v>
       </c>
       <c r="S26">
-        <v>0.08777036043352973</v>
+        <v>0.1233142608924106</v>
       </c>
       <c r="T26">
-        <v>0.09536546799138308</v>
+        <v>0.1279574409381355</v>
       </c>
     </row>
   </sheetData>
